--- a/www/IndicatorsPerCountry/Nigeria_GDPperCapita_TerritorialRef_1961_2012_CCode_566.xlsx
+++ b/www/IndicatorsPerCountry/Nigeria_GDPperCapita_TerritorialRef_1961_2012_CCode_566.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Nigeria_GDPperCapita_TerritorialRef_1961_2012_CCode_566.xlsx
+++ b/www/IndicatorsPerCountry/Nigeria_GDPperCapita_TerritorialRef_1961_2012_CCode_566.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>846</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>1197</t>
+    <t>1200</t>
   </si>
   <si>
     <t>1262</t>
   </si>
   <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1287</t>
-  </si>
-  <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>1393</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>976</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>1085</t>
-  </si>
-  <si>
-    <t>1112.36871111</t>
-  </si>
-  <si>
-    <t>1077.29039224</t>
-  </si>
-  <si>
-    <t>1054.50335631</t>
-  </si>
-  <si>
-    <t>1049.40848057</t>
-  </si>
-  <si>
-    <t>1032.48649363</t>
-  </si>
-  <si>
-    <t>1003.84380553</t>
-  </si>
-  <si>
-    <t>1028.18889998</t>
-  </si>
-  <si>
-    <t>1031.44268188</t>
-  </si>
-  <si>
-    <t>1034.12467066</t>
-  </si>
-  <si>
-    <t>1013.95595658</t>
-  </si>
-  <si>
-    <t>1041.38993893</t>
-  </si>
-  <si>
-    <t>1097.7469873</t>
-  </si>
-  <si>
-    <t>1295.53218741</t>
-  </si>
-  <si>
-    <t>1391.28727766</t>
-  </si>
-  <si>
-    <t>1497.48613407</t>
-  </si>
-  <si>
-    <t>1536.92070309</t>
-  </si>
-  <si>
-    <t>1590.05623134</t>
-  </si>
-  <si>
-    <t>1656.98575781</t>
-  </si>
-  <si>
-    <t>1710.97572312</t>
-  </si>
-  <si>
-    <t>1783.10578221</t>
-  </si>
-  <si>
-    <t>1876.10733254</t>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1759.00349696734</t>
+  </si>
+  <si>
+    <t>1793.94013667409</t>
+  </si>
+  <si>
+    <t>1817.74951018463</t>
+  </si>
+  <si>
+    <t>1820.30462461131</t>
+  </si>
+  <si>
+    <t>1851.03748058961</t>
+  </si>
+  <si>
+    <t>1924.08840384563</t>
+  </si>
+  <si>
+    <t>1977.28562911474</t>
+  </si>
+  <si>
+    <t>2025.86492178969</t>
+  </si>
+  <si>
+    <t>2034.82752406394</t>
+  </si>
+  <si>
+    <t>2144.82540433565</t>
+  </si>
+  <si>
+    <t>2282.82301829164</t>
+  </si>
+  <si>
+    <t>2609.12944509355</t>
+  </si>
+  <si>
+    <t>2848.28129737176</t>
+  </si>
+  <si>
+    <t>3136.62742586954</t>
+  </si>
+  <si>
+    <t>3347.82046684666</t>
+  </si>
+  <si>
+    <t>3564.63234245633</t>
+  </si>
+  <si>
+    <t>3817.48352250735</t>
+  </si>
+  <si>
+    <t>4084.20026035943</t>
+  </si>
+  <si>
+    <t>4416.34699161145</t>
+  </si>
+  <si>
+    <t>4904.86586262996</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>5223</t>
+  </si>
+  <si>
+    <t>5370</t>
+  </si>
+  <si>
+    <t>5569</t>
+  </si>
+  <si>
+    <t>5578</t>
+  </si>
+  <si>
+    <t>5360</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
